--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,10 +351,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -375,6 +375,14 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="5550" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6660" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="6660" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,7 +377,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>master</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +358,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -376,8 +380,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>sn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -354,7 +358,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -376,8 +380,8 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>8</v>
+      <c r="A3" t="s">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test2</t>
+    <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>master</t>
+    <t>master1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="7770" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>master</t>
+    <t>test3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test3</t>
+    <t>test3-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>master1</t>
+    <t>master1119</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,10 +358,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="9990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>master1</t>
+    <t>excel4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/test.xlsx
+++ b/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="9990" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11100" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excel4</t>
+    <t>excel5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
